--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/uploaded/excels/EmployeeTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/uploaded/excels/EmployeeTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\HRMS\wwwroot\uploaded\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\HRMS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
+    <sheet name="BoPhans" sheetId="3" r:id="rId2"/>
+    <sheet name="Chuc Danh" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -111,12 +113,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>số sổ BH</t>
-  </si>
-  <si>
-    <t>mã số thuế</t>
-  </si>
-  <si>
     <t>Số người giảm trừ</t>
   </si>
   <si>
@@ -138,9 +134,6 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>Lê Văn Đặng</t>
   </si>
   <si>
@@ -174,9 +167,6 @@
     <t>Công An Tỉnh Băc Giang</t>
   </si>
   <si>
-    <t>SHIN HAN BANK</t>
-  </si>
-  <si>
     <t>123214123123123</t>
   </si>
   <si>
@@ -190,6 +180,184 @@
   </si>
   <si>
     <t>98123123123</t>
+  </si>
+  <si>
+    <t>Tôn giáo</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>KHO</t>
+  </si>
+  <si>
+    <t>KOREA</t>
+  </si>
+  <si>
+    <t>LFEM</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>UTILITY</t>
+  </si>
+  <si>
+    <t>WLP1</t>
+  </si>
+  <si>
+    <t>WLP2</t>
+  </si>
+  <si>
+    <t>Assistant leader</t>
+  </si>
+  <si>
+    <t>Assistant leader/ Phó nhóm</t>
+  </si>
+  <si>
+    <t>Assistant Manager</t>
+  </si>
+  <si>
+    <t>Engineer Assistant leader</t>
+  </si>
+  <si>
+    <t>Engineer Assistant leader/ Phó nhóm kỹ thuật</t>
+  </si>
+  <si>
+    <t>Engineer shift leader</t>
+  </si>
+  <si>
+    <t>Engineer shift leader/ Tổ trưởng kỹ thuật</t>
+  </si>
+  <si>
+    <t>Engineer supervisor</t>
+  </si>
+  <si>
+    <t>Engineer supervisor/ Giám sát kỹ thuật</t>
+  </si>
+  <si>
+    <t>General Director</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>Group Leader</t>
+  </si>
+  <si>
+    <t>Group Leader/ Trưởng bộ phận</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Operator/ Công nhân</t>
+  </si>
+  <si>
+    <t>Operator Radiation safety</t>
+  </si>
+  <si>
+    <t>Operator/ Công nhân - An toàn bức xạ</t>
+  </si>
+  <si>
+    <t>Operator TOXIC</t>
+  </si>
+  <si>
+    <t>Operator/ Công nhân tiếp xúc hóa chất độc hại</t>
+  </si>
+  <si>
+    <t>Operator XRF</t>
+  </si>
+  <si>
+    <t>Operator/ Công nhân (bức xạ XRF)</t>
+  </si>
+  <si>
+    <t>Part Leader</t>
+  </si>
+  <si>
+    <t>Part Leader/ Trưởng nhóm</t>
+  </si>
+  <si>
+    <t>Senior Manager</t>
+  </si>
+  <si>
+    <t>Shift leader</t>
+  </si>
+  <si>
+    <t>Shift leader/ Tổ trưởng sản xuất</t>
+  </si>
+  <si>
+    <t>Staff Ma</t>
+  </si>
+  <si>
+    <t>Staff/ Nhân viên - Mạ</t>
+  </si>
+  <si>
+    <t>Staff Reveal</t>
+  </si>
+  <si>
+    <t>Staff/ Nhân viên - Lộ quang</t>
+  </si>
+  <si>
+    <t>Staff Xray</t>
+  </si>
+  <si>
+    <t>Staff/ Nhân viên - Bức xạ máy Xray</t>
+  </si>
+  <si>
+    <t>Staff XRF</t>
+  </si>
+  <si>
+    <t>Staff/ Nhân viên (bức xạ XRF)</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Supervisor/ Giám sát line</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Tinh Trang Hon Nhan</t>
+  </si>
+  <si>
+    <t>SHINHAN BANK</t>
+  </si>
+  <si>
+    <t>Ngày Tham Gia BH</t>
+  </si>
+  <si>
+    <t>Ngày Hết Hạn BH</t>
+  </si>
+  <si>
+    <t>Số sổ BH</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Tổng phép năm
+(hiện tại)</t>
+  </si>
+  <si>
+    <t>Còn lại  phép năm(hiện tại)</t>
   </si>
 </sst>
 </file>
@@ -224,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,24 +523,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -649,185 +832,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="34" max="34" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="S1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AF1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-    </row>
-    <row r="3" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+    </row>
+    <row r="3" spans="1:34" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G3" s="3">
         <v>44586</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="P3" s="2">
         <v>122029039</v>
@@ -836,47 +1040,77 @@
         <v>44586</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V3" s="3">
         <v>44586</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>44216</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>44217</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="11">
         <v>0</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="AA1:AC2" name="Range1_3" securityDescriptor="O:WDG:WDD:(A;;CC;;;BU)"/>
+    <protectedRange sqref="AA1:AH2" name="Range1_3" securityDescriptor="O:WDG:WDD:(A;;CC;;;BU)"/>
   </protectedRanges>
-  <mergeCells count="28">
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
+  <mergeCells count="31">
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="V1:V2"/>
@@ -891,23 +1125,347 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>BoPhans!$A$1:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Chuc Danh'!$A$2:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Chuc Danh'!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>